--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Nav_NextProfile_and_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Nav_NextProfile_and_AddNewProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88593532-EFBF-453E-85FB-A152B6C1BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F3D5A3-062D-472D-8190-F5335ECD77D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82F0EBEC-25E3-4366-8F02-E408963A0804}"/>
+    <workbookView xWindow="4080" yWindow="3336" windowWidth="17280" windowHeight="9024" xr2:uid="{82F0EBEC-25E3-4366-8F02-E408963A0804}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -516,20 +516,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -563,7 +563,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -577,12 +577,12 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -610,15 +610,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -635,7 +635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -648,7 +648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
